--- a/Analysis/Clean/00EducationAssignments.xlsx
+++ b/Analysis/Clean/00EducationAssignments.xlsx
@@ -751,6 +751,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -760,11 +765,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1074,9 +1074,9 @@
   <dimension ref="A2:X35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="R31" sqref="R31"/>
+      <selection pane="topRight" activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1103,11 +1103,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:24" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
       <c r="E2" s="1"/>
       <c r="G2" s="2" t="s">
         <v>144</v>
@@ -1124,15 +1124,15 @@
       <c r="E3" t="s">
         <v>150</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
       <c r="S3" t="str">
         <f>SUBSTITUTE($G$3,"C:\","\\client\c$\")&amp;"\"</f>
         <v>\\client\c$\Users\anobs\Documents\GitHub\Unit11SATACT\Analysis\Stage4Import\</v>
@@ -1145,7 +1145,7 @@
       <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="37" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="3"/>
@@ -1155,7 +1155,7 @@
       <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="32"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="15" t="s">
         <v>89</v>
       </c>
@@ -1183,7 +1183,7 @@
       <c r="B6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="33"/>
+      <c r="C6" s="38"/>
       <c r="D6" s="14"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
@@ -1214,10 +1214,10 @@
       <c r="S6" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="T6" s="39" t="s">
+      <c r="T6" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="U6" s="38" t="s">
+      <c r="U6" s="33" t="s">
         <v>164</v>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       <c r="E7" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="F7" s="40" t="s">
+      <c r="F7" s="35" t="s">
         <v>82</v>
       </c>
       <c r="G7" s="9" t="str">
@@ -1268,15 +1268,15 @@
         <v>162</v>
       </c>
       <c r="R7" t="str">
-        <f>R$6&amp;" "&amp;LEFT("i"&amp;SUBSTITUTE(F7,".","_"),32)&amp;U7&amp;S7</f>
+        <f t="shared" ref="R7:R34" si="1">R$6&amp;" "&amp;LEFT("i"&amp;SUBSTITUTE(F7,".","_"),32)&amp;U7&amp;S7</f>
         <v>Proc Import Out = i01testscores_xls(KEEP = State SPENDING_PER_STUDENT )datafile = "\\client\c$\Users\anobs\Documents\GitHub\Unit11SATACT\Analysis\Stage4Import\01testscores.xls"</v>
       </c>
       <c r="S7" s="18" t="str">
-        <f>"datafile = """&amp;$S$3&amp;F7&amp;""""</f>
+        <f t="shared" ref="S7:S35" si="2">"datafile = """&amp;$S$3&amp;F7&amp;""""</f>
         <v>datafile = "\\client\c$\Users\anobs\Documents\GitHub\Unit11SATACT\Analysis\Stage4Import\01testscores.xls"</v>
       </c>
       <c r="U7" s="18" t="str">
-        <f>"("&amp;$U$6&amp;SP&amp;K7&amp;SP&amp;L7&amp;SP&amp;M7&amp;")"</f>
+        <f t="shared" ref="U7:U35" si="3">"("&amp;$U$6&amp;SP&amp;K7&amp;SP&amp;L7&amp;SP&amp;M7&amp;")"</f>
         <v>(KEEP = State SPENDING_PER_STUDENT )</v>
       </c>
       <c r="X7" t="str">
@@ -1296,7 +1296,7 @@
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="40"/>
+      <c r="F8" s="35"/>
       <c r="G8" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ClickToOpen</v>
@@ -1310,15 +1310,15 @@
       <c r="N8" s="20"/>
       <c r="O8" s="31"/>
       <c r="R8" s="18" t="str">
-        <f>R$6&amp;" "&amp;LEFT("i"&amp;SUBSTITUTE(F8,".","_"),32)&amp;U8&amp;S8</f>
+        <f t="shared" si="1"/>
         <v>Proc Import Out = i(KEEP =   )datafile = "\\client\c$\Users\anobs\Documents\GitHub\Unit11SATACT\Analysis\Stage4Import\"</v>
       </c>
       <c r="S8" s="18" t="str">
-        <f>"datafile = """&amp;$S$3&amp;F8&amp;""""</f>
+        <f t="shared" si="2"/>
         <v>datafile = "\\client\c$\Users\anobs\Documents\GitHub\Unit11SATACT\Analysis\Stage4Import\"</v>
       </c>
       <c r="U8" s="18" t="str">
-        <f>"("&amp;$U$6&amp;SP&amp;K8&amp;SP&amp;L8&amp;SP&amp;M8&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>(KEEP =   )</v>
       </c>
     </row>
@@ -1338,7 +1338,7 @@
       <c r="E9" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="F9" s="41" t="s">
+      <c r="F9" s="36" t="s">
         <v>81</v>
       </c>
       <c r="G9" s="9" t="str">
@@ -1369,15 +1369,15 @@
       </c>
       <c r="O9" s="31"/>
       <c r="R9" s="18" t="str">
-        <f>R$6&amp;" "&amp;LEFT("i"&amp;SUBSTITUTE(F9,".","_"),32)&amp;U9&amp;S9</f>
+        <f t="shared" si="1"/>
         <v>Proc Import Out = i03AAbbottEducation_xlsx(KEEP = State PctMalesNeverMarried PctFemalesNeverMarried)datafile = "\\client\c$\Users\anobs\Documents\GitHub\Unit11SATACT\Analysis\Stage4Import\03AAbbottEducation.xlsx"</v>
       </c>
       <c r="S9" s="18" t="str">
-        <f>"datafile = """&amp;$S$3&amp;F9&amp;""""</f>
+        <f t="shared" si="2"/>
         <v>datafile = "\\client\c$\Users\anobs\Documents\GitHub\Unit11SATACT\Analysis\Stage4Import\03AAbbottEducation.xlsx"</v>
       </c>
       <c r="U9" s="18" t="str">
-        <f>"("&amp;$U$6&amp;SP&amp;K9&amp;SP&amp;L9&amp;SP&amp;M9&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>(KEEP = State PctMalesNeverMarried PctFemalesNeverMarried)</v>
       </c>
     </row>
@@ -1397,7 +1397,7 @@
       <c r="E10" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="F10" s="40" t="s">
+      <c r="F10" s="35" t="s">
         <v>80</v>
       </c>
       <c r="G10" s="9" t="str">
@@ -1426,15 +1426,15 @@
       <c r="O10" s="31"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="18" t="str">
-        <f>R$6&amp;" "&amp;LEFT("i"&amp;SUBSTITUTE(F10,".","_"),32)&amp;U10&amp;S10</f>
+        <f t="shared" si="1"/>
         <v>Proc Import Out = i04WhitePerBlackPer_xlsx(KEEP = Location White Black)datafile = "\\client\c$\Users\anobs\Documents\GitHub\Unit11SATACT\Analysis\Stage4Import\04WhitePerBlackPer.xlsx"</v>
       </c>
       <c r="S10" s="18" t="str">
-        <f>"datafile = """&amp;$S$3&amp;F10&amp;""""</f>
+        <f t="shared" si="2"/>
         <v>datafile = "\\client\c$\Users\anobs\Documents\GitHub\Unit11SATACT\Analysis\Stage4Import\04WhitePerBlackPer.xlsx"</v>
       </c>
       <c r="U10" s="18" t="str">
-        <f>"("&amp;$U$6&amp;SP&amp;K10&amp;SP&amp;L10&amp;SP&amp;M10&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>(KEEP = Location White Black)</v>
       </c>
     </row>
@@ -1450,7 +1450,7 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="10"/>
-      <c r="F11" s="40"/>
+      <c r="F11" s="35"/>
       <c r="G11" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ClickToOpen</v>
@@ -1464,15 +1464,15 @@
       <c r="N11" s="20"/>
       <c r="O11" s="31"/>
       <c r="R11" s="18" t="str">
-        <f>R$6&amp;" "&amp;LEFT("i"&amp;SUBSTITUTE(F11,".","_"),32)&amp;U11&amp;S11</f>
+        <f t="shared" si="1"/>
         <v>Proc Import Out = i(KEEP =   )datafile = "\\client\c$\Users\anobs\Documents\GitHub\Unit11SATACT\Analysis\Stage4Import\"</v>
       </c>
       <c r="S11" s="18" t="str">
-        <f>"datafile = """&amp;$S$3&amp;F11&amp;""""</f>
+        <f t="shared" si="2"/>
         <v>datafile = "\\client\c$\Users\anobs\Documents\GitHub\Unit11SATACT\Analysis\Stage4Import\"</v>
       </c>
       <c r="U11" s="18" t="str">
-        <f>"("&amp;$U$6&amp;SP&amp;K11&amp;SP&amp;L11&amp;SP&amp;M11&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>(KEEP =   )</v>
       </c>
     </row>
@@ -1492,7 +1492,7 @@
       <c r="E12" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="F12" s="40" t="s">
+      <c r="F12" s="35" t="s">
         <v>123</v>
       </c>
       <c r="G12" s="9" t="str">
@@ -1518,15 +1518,15 @@
       </c>
       <c r="O12" s="31"/>
       <c r="R12" s="18" t="str">
-        <f>R$6&amp;" "&amp;LEFT("i"&amp;SUBSTITUTE(F12,".","_"),32)&amp;U12&amp;S12</f>
+        <f t="shared" si="1"/>
         <v>Proc Import Out = i06PublicPrivateSchoolsClean_xls(KEEP = State  HS_PCT_Private  )datafile = "\\client\c$\Users\anobs\Documents\GitHub\Unit11SATACT\Analysis\Stage4Import\06PublicPrivateSchoolsClean.xls"</v>
       </c>
       <c r="S12" s="18" t="str">
-        <f>"datafile = """&amp;$S$3&amp;F12&amp;""""</f>
+        <f t="shared" si="2"/>
         <v>datafile = "\\client\c$\Users\anobs\Documents\GitHub\Unit11SATACT\Analysis\Stage4Import\06PublicPrivateSchoolsClean.xls"</v>
       </c>
       <c r="U12" s="18" t="str">
-        <f>"("&amp;$U$6&amp;SP&amp;K12&amp;SP&amp;L12&amp;SP&amp;M12&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>(KEEP = State  HS_PCT_Private  )</v>
       </c>
     </row>
@@ -1542,7 +1542,7 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="10"/>
-      <c r="F13" s="40"/>
+      <c r="F13" s="35"/>
       <c r="G13" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ClickToOpen</v>
@@ -1556,15 +1556,15 @@
       <c r="N13" s="20"/>
       <c r="O13" s="31"/>
       <c r="R13" s="18" t="str">
-        <f>R$6&amp;" "&amp;LEFT("i"&amp;SUBSTITUTE(F13,".","_"),32)&amp;U13&amp;S13</f>
+        <f t="shared" si="1"/>
         <v>Proc Import Out = i(KEEP =   )datafile = "\\client\c$\Users\anobs\Documents\GitHub\Unit11SATACT\Analysis\Stage4Import\"</v>
       </c>
       <c r="S13" s="18" t="str">
-        <f>"datafile = """&amp;$S$3&amp;F13&amp;""""</f>
+        <f t="shared" si="2"/>
         <v>datafile = "\\client\c$\Users\anobs\Documents\GitHub\Unit11SATACT\Analysis\Stage4Import\"</v>
       </c>
       <c r="U13" s="18" t="str">
-        <f>"("&amp;$U$6&amp;SP&amp;K13&amp;SP&amp;L13&amp;SP&amp;M13&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>(KEEP =   )</v>
       </c>
     </row>
@@ -1584,7 +1584,7 @@
       <c r="E14" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="40" t="s">
+      <c r="F14" s="35" t="s">
         <v>79</v>
       </c>
       <c r="G14" s="9" t="str">
@@ -1610,15 +1610,15 @@
       </c>
       <c r="O14" s="31"/>
       <c r="R14" s="18" t="str">
-        <f>R$6&amp;" "&amp;LEFT("i"&amp;SUBSTITUTE(F14,".","_"),32)&amp;U14&amp;S14</f>
+        <f t="shared" si="1"/>
         <v>Proc Import Out = i08PovertyLevel_csv(KEEP = State PCT_PovertyLevel )datafile = "\\client\c$\Users\anobs\Documents\GitHub\Unit11SATACT\Analysis\Stage4Import\08PovertyLevel.csv"</v>
       </c>
       <c r="S14" s="18" t="str">
-        <f>"datafile = """&amp;$S$3&amp;F14&amp;""""</f>
+        <f t="shared" si="2"/>
         <v>datafile = "\\client\c$\Users\anobs\Documents\GitHub\Unit11SATACT\Analysis\Stage4Import\08PovertyLevel.csv"</v>
       </c>
       <c r="U14" s="18" t="str">
-        <f>"("&amp;$U$6&amp;SP&amp;K14&amp;SP&amp;L14&amp;SP&amp;M14&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>(KEEP = State PCT_PovertyLevel )</v>
       </c>
     </row>
@@ -1638,7 +1638,7 @@
       <c r="E15" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="F15" s="40" t="s">
+      <c r="F15" s="35" t="s">
         <v>153</v>
       </c>
       <c r="G15" s="9" t="str">
@@ -1661,20 +1661,20 @@
       <c r="M15" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="N15" s="37">
+      <c r="N15" s="32">
         <v>0.1595</v>
       </c>
       <c r="O15" s="31"/>
       <c r="R15" s="18" t="str">
-        <f>R$6&amp;" "&amp;LEFT("i"&amp;SUBSTITUTE(F15,".","_"),32)&amp;U15&amp;S15</f>
+        <f t="shared" si="1"/>
         <v>Proc Import Out = i09PercentAPStudents_csv(KEEP = State 2014 Students in AP Classes 2015 Students in AP Classes)datafile = "\\client\c$\Users\anobs\Documents\GitHub\Unit11SATACT\Analysis\Stage4Import\09PercentAPStudents.csv"</v>
       </c>
       <c r="S15" s="18" t="str">
-        <f>"datafile = """&amp;$S$3&amp;F15&amp;""""</f>
+        <f t="shared" si="2"/>
         <v>datafile = "\\client\c$\Users\anobs\Documents\GitHub\Unit11SATACT\Analysis\Stage4Import\09PercentAPStudents.csv"</v>
       </c>
       <c r="U15" s="18" t="str">
-        <f>"("&amp;$U$6&amp;SP&amp;K15&amp;SP&amp;L15&amp;SP&amp;M15&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>(KEEP = State 2014 Students in AP Classes 2015 Students in AP Classes)</v>
       </c>
     </row>
@@ -1694,7 +1694,7 @@
       <c r="E16" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="F16" s="40" t="s">
+      <c r="F16" s="35" t="s">
         <v>72</v>
       </c>
       <c r="G16" s="9" t="str">
@@ -1724,15 +1724,15 @@
         <v>165</v>
       </c>
       <c r="R16" s="18" t="str">
-        <f>R$6&amp;" "&amp;LEFT("i"&amp;SUBSTITUTE(F16,".","_"),32)&amp;U16&amp;S16</f>
+        <f t="shared" si="1"/>
         <v>Proc Import Out = i10AverageClassSizeByState_xlsx(KEEP = State Average Class Size )datafile = "\\client\c$\Users\anobs\Documents\GitHub\Unit11SATACT\Analysis\Stage4Import\10AverageClassSizeByState.xlsx"</v>
       </c>
       <c r="S16" s="18" t="str">
-        <f>"datafile = """&amp;$S$3&amp;F16&amp;""""</f>
+        <f t="shared" si="2"/>
         <v>datafile = "\\client\c$\Users\anobs\Documents\GitHub\Unit11SATACT\Analysis\Stage4Import\10AverageClassSizeByState.xlsx"</v>
       </c>
       <c r="U16" s="18" t="str">
-        <f>"("&amp;$U$6&amp;SP&amp;K16&amp;SP&amp;L16&amp;SP&amp;M16&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>(KEEP = State Average Class Size )</v>
       </c>
     </row>
@@ -1752,7 +1752,7 @@
       <c r="E17" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="F17" s="40" t="s">
+      <c r="F17" s="35" t="s">
         <v>166</v>
       </c>
       <c r="G17" s="9" t="str">
@@ -1782,15 +1782,15 @@
         <v>157</v>
       </c>
       <c r="R17" s="18" t="str">
-        <f>R$6&amp;" "&amp;LEFT("i"&amp;SUBSTITUTE(F17,".","_"),32)&amp;U17&amp;S17</f>
+        <f t="shared" si="1"/>
         <v>Proc Import Out = i11restaurants_vf_csv(KEEP = State RestPerPerson )datafile = "\\client\c$\Users\anobs\Documents\GitHub\Unit11SATACT\Analysis\Stage4Import\11restaurants_vf.csv"</v>
       </c>
       <c r="S17" s="18" t="str">
-        <f>"datafile = """&amp;$S$3&amp;F17&amp;""""</f>
+        <f t="shared" si="2"/>
         <v>datafile = "\\client\c$\Users\anobs\Documents\GitHub\Unit11SATACT\Analysis\Stage4Import\11restaurants_vf.csv"</v>
       </c>
       <c r="U17" s="18" t="str">
-        <f>"("&amp;$U$6&amp;SP&amp;K17&amp;SP&amp;L17&amp;SP&amp;M17&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>(KEEP = State RestPerPerson )</v>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="10"/>
-      <c r="F18" s="40"/>
+      <c r="F18" s="35"/>
       <c r="G18" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ClickToOpen</v>
@@ -1820,15 +1820,15 @@
       <c r="N18" s="20"/>
       <c r="O18" s="31"/>
       <c r="R18" s="18" t="str">
-        <f>R$6&amp;" "&amp;LEFT("i"&amp;SUBSTITUTE(F18,".","_"),32)&amp;U18&amp;S18</f>
+        <f t="shared" si="1"/>
         <v>Proc Import Out = i(KEEP =   )datafile = "\\client\c$\Users\anobs\Documents\GitHub\Unit11SATACT\Analysis\Stage4Import\"</v>
       </c>
       <c r="S18" s="18" t="str">
-        <f>"datafile = """&amp;$S$3&amp;F18&amp;""""</f>
+        <f t="shared" si="2"/>
         <v>datafile = "\\client\c$\Users\anobs\Documents\GitHub\Unit11SATACT\Analysis\Stage4Import\"</v>
       </c>
       <c r="U18" s="18" t="str">
-        <f>"("&amp;$U$6&amp;SP&amp;K18&amp;SP&amp;L18&amp;SP&amp;M18&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>(KEEP =   )</v>
       </c>
     </row>
@@ -1844,7 +1844,7 @@
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="10"/>
-      <c r="F19" s="40"/>
+      <c r="F19" s="35"/>
       <c r="G19" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ClickToOpen</v>
@@ -1859,15 +1859,15 @@
       <c r="O19" s="31"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="18" t="str">
-        <f>R$6&amp;" "&amp;LEFT("i"&amp;SUBSTITUTE(F19,".","_"),32)&amp;U19&amp;S19</f>
+        <f t="shared" si="1"/>
         <v>Proc Import Out = i(KEEP =   )datafile = "\\client\c$\Users\anobs\Documents\GitHub\Unit11SATACT\Analysis\Stage4Import\"</v>
       </c>
       <c r="S19" s="18" t="str">
-        <f>"datafile = """&amp;$S$3&amp;F19&amp;""""</f>
+        <f t="shared" si="2"/>
         <v>datafile = "\\client\c$\Users\anobs\Documents\GitHub\Unit11SATACT\Analysis\Stage4Import\"</v>
       </c>
       <c r="U19" s="18" t="str">
-        <f>"("&amp;$U$6&amp;SP&amp;K19&amp;SP&amp;L19&amp;SP&amp;M19&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>(KEEP =   )</v>
       </c>
     </row>
@@ -1887,7 +1887,7 @@
       <c r="E20" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="F20" s="40" t="s">
+      <c r="F20" s="35" t="s">
         <v>78</v>
       </c>
       <c r="G20" s="9" t="str">
@@ -1914,15 +1914,15 @@
       </c>
       <c r="Q20" s="4"/>
       <c r="R20" s="18" t="str">
-        <f>R$6&amp;" "&amp;LEFT("i"&amp;SUBSTITUTE(F20,".","_"),32)&amp;U20&amp;S20</f>
+        <f t="shared" si="1"/>
         <v>Proc Import Out = i14High school graduate 2009_xls(KEEP = Column1 Column2 )datafile = "\\client\c$\Users\anobs\Documents\GitHub\Unit11SATACT\Analysis\Stage4Import\14High school graduate 2009.xlsx"</v>
       </c>
       <c r="S20" s="18" t="str">
-        <f>"datafile = """&amp;$S$3&amp;F20&amp;""""</f>
+        <f t="shared" si="2"/>
         <v>datafile = "\\client\c$\Users\anobs\Documents\GitHub\Unit11SATACT\Analysis\Stage4Import\14High school graduate 2009.xlsx"</v>
       </c>
       <c r="U20" s="18" t="str">
-        <f>"("&amp;$U$6&amp;SP&amp;K20&amp;SP&amp;L20&amp;SP&amp;M20&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>(KEEP = Column1 Column2 )</v>
       </c>
     </row>
@@ -1942,7 +1942,7 @@
       <c r="E21" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="F21" s="40" t="s">
+      <c r="F21" s="35" t="s">
         <v>85</v>
       </c>
       <c r="G21" s="9" t="str">
@@ -1971,15 +1971,15 @@
       </c>
       <c r="Q21" s="4"/>
       <c r="R21" s="18" t="str">
-        <f>R$6&amp;" "&amp;LEFT("i"&amp;SUBSTITUTE(F21,".","_"),32)&amp;U21&amp;S21</f>
+        <f t="shared" si="1"/>
         <v>Proc Import Out = i15SchoolLunch_csv(KEEP = STATE PERCENT )datafile = "\\client\c$\Users\anobs\Documents\GitHub\Unit11SATACT\Analysis\Stage4Import\15SchoolLunch.csv"</v>
       </c>
       <c r="S21" s="18" t="str">
-        <f>"datafile = """&amp;$S$3&amp;F21&amp;""""</f>
+        <f t="shared" si="2"/>
         <v>datafile = "\\client\c$\Users\anobs\Documents\GitHub\Unit11SATACT\Analysis\Stage4Import\15SchoolLunch.csv"</v>
       </c>
       <c r="U21" s="18" t="str">
-        <f>"("&amp;$U$6&amp;SP&amp;K21&amp;SP&amp;L21&amp;SP&amp;M21&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>(KEEP = STATE PERCENT )</v>
       </c>
     </row>
@@ -1995,7 +1995,7 @@
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="10"/>
-      <c r="F22" s="40"/>
+      <c r="F22" s="35"/>
       <c r="G22" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ClickToOpen</v>
@@ -2009,15 +2009,15 @@
       <c r="N22" s="20"/>
       <c r="O22" s="31"/>
       <c r="R22" s="18" t="str">
-        <f>R$6&amp;" "&amp;LEFT("i"&amp;SUBSTITUTE(F22,".","_"),32)&amp;U22&amp;S22</f>
+        <f t="shared" si="1"/>
         <v>Proc Import Out = i(KEEP =   )datafile = "\\client\c$\Users\anobs\Documents\GitHub\Unit11SATACT\Analysis\Stage4Import\"</v>
       </c>
       <c r="S22" s="18" t="str">
-        <f>"datafile = """&amp;$S$3&amp;F22&amp;""""</f>
+        <f t="shared" si="2"/>
         <v>datafile = "\\client\c$\Users\anobs\Documents\GitHub\Unit11SATACT\Analysis\Stage4Import\"</v>
       </c>
       <c r="U22" s="18" t="str">
-        <f>"("&amp;$U$6&amp;SP&amp;K22&amp;SP&amp;L22&amp;SP&amp;M22&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>(KEEP =   )</v>
       </c>
     </row>
@@ -2037,7 +2037,7 @@
       <c r="E23" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="F23" s="40" t="s">
+      <c r="F23" s="35" t="s">
         <v>84</v>
       </c>
       <c r="G23" s="9" t="str">
@@ -2063,15 +2063,15 @@
       </c>
       <c r="O23" s="31"/>
       <c r="R23" s="18" t="str">
-        <f>R$6&amp;" "&amp;LEFT("i"&amp;SUBSTITUTE(F23,".","_"),32)&amp;U23&amp;S23</f>
+        <f t="shared" si="1"/>
         <v>Proc Import Out = i17States_HasStateIncomeTax_csv(KEEP = State Has_State_Income_Tax )datafile = "\\client\c$\Users\anobs\Documents\GitHub\Unit11SATACT\Analysis\Stage4Import\17States_HasStateIncomeTax.csv"</v>
       </c>
       <c r="S23" s="18" t="str">
-        <f>"datafile = """&amp;$S$3&amp;F23&amp;""""</f>
+        <f t="shared" si="2"/>
         <v>datafile = "\\client\c$\Users\anobs\Documents\GitHub\Unit11SATACT\Analysis\Stage4Import\17States_HasStateIncomeTax.csv"</v>
       </c>
       <c r="U23" s="18" t="str">
-        <f>"("&amp;$U$6&amp;SP&amp;K23&amp;SP&amp;L23&amp;SP&amp;M23&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>(KEEP = State Has_State_Income_Tax )</v>
       </c>
     </row>
@@ -2091,7 +2091,7 @@
       <c r="E24" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F24" s="40" t="s">
+      <c r="F24" s="35" t="s">
         <v>73</v>
       </c>
       <c r="G24" s="9" t="str">
@@ -2115,15 +2115,15 @@
         <v>147</v>
       </c>
       <c r="R24" s="18" t="str">
-        <f>R$6&amp;" "&amp;LEFT("i"&amp;SUBSTITUTE(F24,".","_"),32)&amp;U24&amp;S24</f>
+        <f t="shared" si="1"/>
         <v>Proc Import Out = i18DeathPenaltyStatsMerged_csv(KEEP = State DeathPenaltyCode )datafile = "\\client\c$\Users\anobs\Documents\GitHub\Unit11SATACT\Analysis\Stage4Import\18DeathPenaltyStatsMerged.csv"</v>
       </c>
       <c r="S24" s="18" t="str">
-        <f>"datafile = """&amp;$S$3&amp;F24&amp;""""</f>
+        <f t="shared" si="2"/>
         <v>datafile = "\\client\c$\Users\anobs\Documents\GitHub\Unit11SATACT\Analysis\Stage4Import\18DeathPenaltyStatsMerged.csv"</v>
       </c>
       <c r="U24" s="18" t="str">
-        <f>"("&amp;$U$6&amp;SP&amp;K24&amp;SP&amp;L24&amp;SP&amp;M24&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>(KEEP = State DeathPenaltyCode )</v>
       </c>
     </row>
@@ -2132,7 +2132,7 @@
       <c r="C25" s="5"/>
       <c r="D25" s="8"/>
       <c r="E25" s="10"/>
-      <c r="F25" s="40" t="s">
+      <c r="F25" s="35" t="s">
         <v>74</v>
       </c>
       <c r="G25" s="9" t="str">
@@ -2162,15 +2162,15 @@
         <v>148</v>
       </c>
       <c r="R25" s="18" t="str">
-        <f>R$6&amp;" "&amp;LEFT("i"&amp;SUBSTITUTE(F25,".","_"),32)&amp;U25&amp;S25</f>
+        <f t="shared" si="1"/>
         <v>Proc Import Out = i18DeathPenaltyStatsNotMerged_cs(KEEP = State DeathPenaltyCode )datafile = "\\client\c$\Users\anobs\Documents\GitHub\Unit11SATACT\Analysis\Stage4Import\18DeathPenaltyStatsNotMerged.csv"</v>
       </c>
       <c r="S25" s="18" t="str">
-        <f>"datafile = """&amp;$S$3&amp;F25&amp;""""</f>
+        <f t="shared" si="2"/>
         <v>datafile = "\\client\c$\Users\anobs\Documents\GitHub\Unit11SATACT\Analysis\Stage4Import\18DeathPenaltyStatsNotMerged.csv"</v>
       </c>
       <c r="U25" s="18" t="str">
-        <f>"("&amp;$U$6&amp;SP&amp;K25&amp;SP&amp;L25&amp;SP&amp;M25&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>(KEEP = State DeathPenaltyCode )</v>
       </c>
     </row>
@@ -2186,7 +2186,7 @@
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="10"/>
-      <c r="F26" s="40"/>
+      <c r="F26" s="35"/>
       <c r="G26" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ClickToOpen</v>
@@ -2200,15 +2200,15 @@
       <c r="N26" s="20"/>
       <c r="O26" s="31"/>
       <c r="R26" s="18" t="str">
-        <f>R$6&amp;" "&amp;LEFT("i"&amp;SUBSTITUTE(F26,".","_"),32)&amp;U26&amp;S26</f>
+        <f t="shared" si="1"/>
         <v>Proc Import Out = i(KEEP =   )datafile = "\\client\c$\Users\anobs\Documents\GitHub\Unit11SATACT\Analysis\Stage4Import\"</v>
       </c>
       <c r="S26" s="18" t="str">
-        <f>"datafile = """&amp;$S$3&amp;F26&amp;""""</f>
+        <f t="shared" si="2"/>
         <v>datafile = "\\client\c$\Users\anobs\Documents\GitHub\Unit11SATACT\Analysis\Stage4Import\"</v>
       </c>
       <c r="U26" s="18" t="str">
-        <f>"("&amp;$U$6&amp;SP&amp;K26&amp;SP&amp;L26&amp;SP&amp;M26&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>(KEEP =   )</v>
       </c>
     </row>
@@ -2224,7 +2224,7 @@
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="10"/>
-      <c r="F27" s="40"/>
+      <c r="F27" s="35"/>
       <c r="G27" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ClickToOpen</v>
@@ -2238,15 +2238,15 @@
       <c r="N27" s="20"/>
       <c r="O27" s="31"/>
       <c r="R27" s="18" t="str">
-        <f>R$6&amp;" "&amp;LEFT("i"&amp;SUBSTITUTE(F27,".","_"),32)&amp;U27&amp;S27</f>
+        <f t="shared" si="1"/>
         <v>Proc Import Out = i(KEEP =   )datafile = "\\client\c$\Users\anobs\Documents\GitHub\Unit11SATACT\Analysis\Stage4Import\"</v>
       </c>
       <c r="S27" s="18" t="str">
-        <f>"datafile = """&amp;$S$3&amp;F27&amp;""""</f>
+        <f t="shared" si="2"/>
         <v>datafile = "\\client\c$\Users\anobs\Documents\GitHub\Unit11SATACT\Analysis\Stage4Import\"</v>
       </c>
       <c r="U27" s="18" t="str">
-        <f>"("&amp;$U$6&amp;SP&amp;K27&amp;SP&amp;L27&amp;SP&amp;M27&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>(KEEP =   )</v>
       </c>
     </row>
@@ -2266,7 +2266,7 @@
       <c r="E28" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F28" s="40" t="s">
+      <c r="F28" s="35" t="s">
         <v>75</v>
       </c>
       <c r="G28" s="9" t="str">
@@ -2294,15 +2294,15 @@
         <v>134</v>
       </c>
       <c r="R28" s="18" t="str">
-        <f>R$6&amp;" "&amp;LEFT("i"&amp;SUBSTITUTE(F28,".","_"),32)&amp;U28&amp;S28</f>
+        <f t="shared" si="1"/>
         <v>Proc Import Out = i21StudentsPerTeacher2013_csv(KEEP = ST Students per T )datafile = "\\client\c$\Users\anobs\Documents\GitHub\Unit11SATACT\Analysis\Stage4Import\21StudentsPerTeacher2013.csv"</v>
       </c>
       <c r="S28" s="18" t="str">
-        <f>"datafile = """&amp;$S$3&amp;F28&amp;""""</f>
+        <f t="shared" si="2"/>
         <v>datafile = "\\client\c$\Users\anobs\Documents\GitHub\Unit11SATACT\Analysis\Stage4Import\21StudentsPerTeacher2013.csv"</v>
       </c>
       <c r="U28" s="18" t="str">
-        <f>"("&amp;$U$6&amp;SP&amp;K28&amp;SP&amp;L28&amp;SP&amp;M28&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>(KEEP = ST Students per T )</v>
       </c>
     </row>
@@ -2322,7 +2322,7 @@
       <c r="E29" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F29" s="40" t="s">
+      <c r="F29" s="35" t="s">
         <v>83</v>
       </c>
       <c r="G29" s="9" t="str">
@@ -2348,15 +2348,15 @@
       </c>
       <c r="O29" s="31"/>
       <c r="R29" s="18" t="str">
-        <f>R$6&amp;" "&amp;LEFT("i"&amp;SUBSTITUTE(F29,".","_"),32)&amp;U29&amp;S29</f>
+        <f t="shared" si="1"/>
         <v>Proc Import Out = i22Shaw_Electoral_Votes_csv(KEEP = State Total_Electoral_Vote_Count )datafile = "\\client\c$\Users\anobs\Documents\GitHub\Unit11SATACT\Analysis\Stage4Import\22Shaw_Electoral_Votes.csv"</v>
       </c>
       <c r="S29" s="18" t="str">
-        <f>"datafile = """&amp;$S$3&amp;F29&amp;""""</f>
+        <f t="shared" si="2"/>
         <v>datafile = "\\client\c$\Users\anobs\Documents\GitHub\Unit11SATACT\Analysis\Stage4Import\22Shaw_Electoral_Votes.csv"</v>
       </c>
       <c r="U29" s="18" t="str">
-        <f>"("&amp;$U$6&amp;SP&amp;K29&amp;SP&amp;L29&amp;SP&amp;M29&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>(KEEP = State Total_Electoral_Vote_Count )</v>
       </c>
     </row>
@@ -2376,7 +2376,7 @@
       <c r="E30" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F30" s="40" t="s">
+      <c r="F30" s="35" t="s">
         <v>76</v>
       </c>
       <c r="G30" s="9" t="str">
@@ -2403,15 +2403,15 @@
       </c>
       <c r="P30" s="18"/>
       <c r="R30" s="18" t="str">
-        <f>R$6&amp;" "&amp;LEFT("i"&amp;SUBSTITUTE(F30,".","_"),32)&amp;U30&amp;S30</f>
+        <f t="shared" si="1"/>
         <v>Proc Import Out = i23ACS_09_5YR_GCT1105_US01PR_xls(KEEP = Column1 Column2 (Person) )datafile = "\\client\c$\Users\anobs\Documents\GitHub\Unit11SATACT\Analysis\Stage4Import\23ACS_09_5YR_GCT1105.US01PR.xls"</v>
       </c>
       <c r="S30" s="18" t="str">
-        <f>"datafile = """&amp;$S$3&amp;F30&amp;""""</f>
+        <f t="shared" si="2"/>
         <v>datafile = "\\client\c$\Users\anobs\Documents\GitHub\Unit11SATACT\Analysis\Stage4Import\23ACS_09_5YR_GCT1105.US01PR.xls"</v>
       </c>
       <c r="U30" s="18" t="str">
-        <f>"("&amp;$U$6&amp;SP&amp;K30&amp;SP&amp;L30&amp;SP&amp;M30&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>(KEEP = Column1 Column2 (Person) )</v>
       </c>
     </row>
@@ -2459,15 +2459,15 @@
         <v>149</v>
       </c>
       <c r="R31" s="18" t="str">
-        <f>R$6&amp;" "&amp;LEFT("i"&amp;SUBSTITUTE(F31,".","_"),32)&amp;U31&amp;S31</f>
+        <f t="shared" si="1"/>
         <v>Proc Import Out = i24PopDensity_xlsx(KEEP = State POP_MI² )datafile = "\\client\c$\Users\anobs\Documents\GitHub\Unit11SATACT\Analysis\Stage4Import\24PopDensity.xlsx"</v>
       </c>
       <c r="S31" s="18" t="str">
-        <f>"datafile = """&amp;$S$3&amp;F31&amp;""""</f>
+        <f t="shared" si="2"/>
         <v>datafile = "\\client\c$\Users\anobs\Documents\GitHub\Unit11SATACT\Analysis\Stage4Import\24PopDensity.xlsx"</v>
       </c>
       <c r="U31" s="18" t="str">
-        <f>"("&amp;$U$6&amp;SP&amp;K31&amp;SP&amp;L31&amp;SP&amp;M31&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>(KEEP = State POP_MI² )</v>
       </c>
     </row>
@@ -2494,15 +2494,15 @@
       <c r="N32" s="20"/>
       <c r="O32" s="31"/>
       <c r="R32" s="18" t="str">
-        <f>R$6&amp;" "&amp;LEFT("i"&amp;SUBSTITUTE(F32,".","_"),32)&amp;U32&amp;S32</f>
+        <f t="shared" si="1"/>
         <v>Proc Import Out = i(KEEP =   )datafile = "\\client\c$\Users\anobs\Documents\GitHub\Unit11SATACT\Analysis\Stage4Import\"</v>
       </c>
       <c r="S32" s="18" t="str">
-        <f>"datafile = """&amp;$S$3&amp;F32&amp;""""</f>
+        <f t="shared" si="2"/>
         <v>datafile = "\\client\c$\Users\anobs\Documents\GitHub\Unit11SATACT\Analysis\Stage4Import\"</v>
       </c>
       <c r="U32" s="18" t="str">
-        <f>"("&amp;$U$6&amp;SP&amp;K32&amp;SP&amp;L32&amp;SP&amp;M32&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>(KEEP =   )</v>
       </c>
     </row>
@@ -2529,15 +2529,15 @@
       <c r="N33" s="20"/>
       <c r="O33" s="31"/>
       <c r="R33" s="18" t="str">
-        <f>R$6&amp;" "&amp;LEFT("i"&amp;SUBSTITUTE(F33,".","_"),32)&amp;U33&amp;S33</f>
+        <f t="shared" si="1"/>
         <v>Proc Import Out = i(KEEP =   )datafile = "\\client\c$\Users\anobs\Documents\GitHub\Unit11SATACT\Analysis\Stage4Import\"</v>
       </c>
       <c r="S33" s="18" t="str">
-        <f>"datafile = """&amp;$S$3&amp;F33&amp;""""</f>
+        <f t="shared" si="2"/>
         <v>datafile = "\\client\c$\Users\anobs\Documents\GitHub\Unit11SATACT\Analysis\Stage4Import\"</v>
       </c>
       <c r="U33" s="18" t="str">
-        <f>"("&amp;$U$6&amp;SP&amp;K33&amp;SP&amp;L33&amp;SP&amp;M33&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>(KEEP =   )</v>
       </c>
     </row>
@@ -2564,15 +2564,15 @@
       <c r="N34" s="20"/>
       <c r="O34" s="31"/>
       <c r="R34" s="18" t="str">
-        <f>R$6&amp;" "&amp;LEFT("i"&amp;SUBSTITUTE(F34,".","_"),32)&amp;U34&amp;S34</f>
+        <f t="shared" si="1"/>
         <v>Proc Import Out = i(KEEP =   )datafile = "\\client\c$\Users\anobs\Documents\GitHub\Unit11SATACT\Analysis\Stage4Import\"</v>
       </c>
       <c r="S34" s="18" t="str">
-        <f>"datafile = """&amp;$S$3&amp;F34&amp;""""</f>
+        <f t="shared" si="2"/>
         <v>datafile = "\\client\c$\Users\anobs\Documents\GitHub\Unit11SATACT\Analysis\Stage4Import\"</v>
       </c>
       <c r="U34" s="18" t="str">
-        <f>"("&amp;$U$6&amp;SP&amp;K34&amp;SP&amp;L34&amp;SP&amp;M34&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>(KEEP =   )</v>
       </c>
     </row>
@@ -2599,11 +2599,11 @@
       <c r="N35" s="20"/>
       <c r="O35" s="31"/>
       <c r="S35" s="18" t="str">
-        <f>"datafile = """&amp;$S$3&amp;F35&amp;""""</f>
+        <f t="shared" si="2"/>
         <v>datafile = "\\client\c$\Users\anobs\Documents\GitHub\Unit11SATACT\Analysis\Stage4Import\"</v>
       </c>
       <c r="U35" s="18" t="str">
-        <f>"("&amp;$U$6&amp;SP&amp;K35&amp;SP&amp;L35&amp;SP&amp;M35&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>(KEEP =   )</v>
       </c>
     </row>

--- a/Analysis/Clean/00EducationAssignments.xlsx
+++ b/Analysis/Clean/00EducationAssignments.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="-135" windowWidth="28770" windowHeight="12945"/>
+    <workbookView xWindow="30" yWindow="-135" windowWidth="35085" windowHeight="12945"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="169">
   <si>
     <t>By State Information to use in the project</t>
   </si>
@@ -521,6 +521,12 @@
   </si>
   <si>
     <t>11restaurants_vf.csv</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/josequinonez/U11Homework/master/MandatoryKindergarten.csv?raw=true</t>
+  </si>
+  <si>
+    <t>05MandatoryKindergarten.csv</t>
   </si>
 </sst>
 </file>
@@ -694,7 +700,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -765,6 +771,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1076,7 +1083,7 @@
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="G31" sqref="G31"/>
+      <selection pane="topRight" activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1449,8 +1456,12 @@
         <v>45</v>
       </c>
       <c r="D11" s="11"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="35"/>
+      <c r="E11" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>168</v>
+      </c>
       <c r="G11" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ClickToOpen</v>
@@ -1465,11 +1476,11 @@
       <c r="O11" s="31"/>
       <c r="R11" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>Proc Import Out = i(KEEP =   )datafile = "\\client\c$\Users\anobs\Documents\GitHub\Unit11SATACT\Analysis\Stage4Import\"</v>
+        <v>Proc Import Out = i05MandatoryKindergarten_csv(KEEP =   )datafile = "\\client\c$\Users\anobs\Documents\GitHub\Unit11SATACT\Analysis\Stage4Import\05MandatoryKindergarten.csv"</v>
       </c>
       <c r="S11" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>datafile = "\\client\c$\Users\anobs\Documents\GitHub\Unit11SATACT\Analysis\Stage4Import\"</v>
+        <v>datafile = "\\client\c$\Users\anobs\Documents\GitHub\Unit11SATACT\Analysis\Stage4Import\05MandatoryKindergarten.csv"</v>
       </c>
       <c r="U11" s="18" t="str">
         <f t="shared" si="3"/>
@@ -2646,9 +2657,10 @@
     <hyperlink ref="E31" r:id="rId27"/>
     <hyperlink ref="E15" r:id="rId28"/>
     <hyperlink ref="D15" r:id="rId29"/>
+    <hyperlink ref="E11" r:id="rId30"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="65" orientation="portrait" r:id="rId30"/>
+  <pageSetup scale="65" orientation="portrait" r:id="rId31"/>
 </worksheet>
 </file>
 

--- a/Analysis/Clean/00EducationAssignments.xlsx
+++ b/Analysis/Clean/00EducationAssignments.xlsx
@@ -762,6 +762,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -771,7 +772,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1083,7 +1083,7 @@
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="R11" sqref="R11"/>
+      <selection pane="topRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1110,11 +1110,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:24" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
       <c r="E2" s="1"/>
       <c r="G2" s="2" t="s">
         <v>144</v>
@@ -1131,15 +1131,15 @@
       <c r="E3" t="s">
         <v>150</v>
       </c>
-      <c r="G3" s="39" t="s">
+      <c r="G3" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
       <c r="S3" t="str">
         <f>SUBSTITUTE($G$3,"C:\","\\client\c$\")&amp;"\"</f>
         <v>\\client\c$\Users\anobs\Documents\GitHub\Unit11SATACT\Analysis\Stage4Import\</v>
@@ -1152,7 +1152,7 @@
       <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="38" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="3"/>
@@ -1162,7 +1162,7 @@
       <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="37"/>
+      <c r="C5" s="38"/>
       <c r="D5" s="15" t="s">
         <v>89</v>
       </c>
@@ -1190,7 +1190,7 @@
       <c r="B6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="38"/>
+      <c r="C6" s="39"/>
       <c r="D6" s="14"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
@@ -1456,7 +1456,7 @@
         <v>45</v>
       </c>
       <c r="D11" s="11"/>
-      <c r="E11" s="42" t="s">
+      <c r="E11" s="37" t="s">
         <v>167</v>
       </c>
       <c r="F11" s="35" t="s">
@@ -2658,9 +2658,12 @@
     <hyperlink ref="E15" r:id="rId28"/>
     <hyperlink ref="D15" r:id="rId29"/>
     <hyperlink ref="E11" r:id="rId30"/>
+    <hyperlink ref="D29" r:id="rId31"/>
+    <hyperlink ref="D23" r:id="rId32"/>
+    <hyperlink ref="D21" r:id="rId33"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="65" orientation="portrait" r:id="rId31"/>
+  <pageSetup scale="65" orientation="portrait" r:id="rId34"/>
 </worksheet>
 </file>
 
